--- a/website/template.xlsx
+++ b/website/template.xlsx
@@ -272,10 +272,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1:V6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -491,6 +491,7 @@
         <v>47</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
